--- a/AAII_Financials/Quarterly/PLTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLTR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
   <si>
     <t>PLTR</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>322100</v>
+      </c>
+      <c r="E8" s="3">
         <v>289400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>481200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>229300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>229400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>190500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>176300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>146300</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E9" s="3">
         <v>149300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>132700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>64300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>75900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>65100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>56600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>44800</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>251600</v>
+      </c>
+      <c r="E10" s="3">
         <v>140100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>348500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>165000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>153500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>125400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>119700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>101500</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>94100</v>
+      </c>
+      <c r="E12" s="3">
         <v>313900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>152600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>65800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>75800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>75900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>78700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>75100</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,20 +887,23 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -900,8 +919,11 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,20 +964,21 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>478700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1137100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>650500</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
       </c>
@@ -968,20 +994,23 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-156600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-847700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-169300</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -997,8 +1026,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,20 +1042,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-12000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>18400</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1039,20 +1072,23 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-150600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-857300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-143200</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1068,95 +1104,107 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E22" s="3">
         <v>2100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>10200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
       </c>
       <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-155900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-861900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-161200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-51700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-155400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-137800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-132700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-141300</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-8500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5100</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,20 +1232,23 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-148300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-853300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-164700</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1213,20 +1264,23 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-148300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-853300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-170200</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1242,8 +1296,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,20 +1424,23 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E32" s="3">
         <v>12000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-18400</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1387,20 +1456,23 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-148300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-853300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-170200</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1416,8 +1488,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,20 +1520,23 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-148300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-853300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-170200</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1474,42 +1552,48 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,20 +1619,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2011300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1800200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1497600</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1563,8 +1649,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,20 +1681,23 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>156900</v>
+      </c>
+      <c r="E43" s="3">
         <v>162300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>106100</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1621,8 +1713,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,20 +1745,23 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>89200</v>
+      </c>
+      <c r="E45" s="3">
         <v>432000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>76500</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1679,20 +1777,23 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2257400</v>
+      </c>
+      <c r="E46" s="3">
         <v>2394400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1680200</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1708,20 +1809,23 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
         <v>25300</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1737,19 +1841,22 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>29400</v>
+        <v>246600</v>
       </c>
       <c r="E48" s="3">
         <v>29400</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+      <c r="F48" s="3">
+        <v>29400</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1766,8 +1873,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,20 +1969,23 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>186500</v>
+      </c>
+      <c r="E52" s="3">
         <v>179900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>157500</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,20 +2033,23 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2690500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2603700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1892400</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1940,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,20 +2095,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E57" s="3">
         <v>22200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>16100</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1995,8 +2125,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2024,20 +2157,23 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>587500</v>
+      </c>
+      <c r="E59" s="3">
         <v>920000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>588000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2053,20 +2189,23 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>603800</v>
+      </c>
+      <c r="E60" s="3">
         <v>942200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>604100</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2082,20 +2221,23 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>198000</v>
+      </c>
+      <c r="E61" s="3">
         <v>197800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>297600</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2111,20 +2253,23 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>366200</v>
+      </c>
+      <c r="E62" s="3">
         <v>212000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>261300</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2140,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,20 +2381,23 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1168000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1352000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1163000</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2256,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2336,11 +2503,11 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>2128100</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,20 +2555,23 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4965400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4817000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3963700</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,20 +2683,23 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1522600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1251800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1398700</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,54 +2747,60 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-148300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-853300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-170200</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2622,8 +2816,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,20 +2832,21 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E83" s="3">
         <v>2500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7800</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2664,8 +2862,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,20 +3022,23 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-52000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-226300</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +3054,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,20 +3070,21 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5900</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2880,8 +3100,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,20 +3164,23 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5700</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3196,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,20 +3338,23 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>219100</v>
+      </c>
+      <c r="E100" s="3">
         <v>350100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>467300</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3125,20 +3370,23 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3154,20 +3402,23 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>197800</v>
+      </c>
+      <c r="E102" s="3">
         <v>293300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>235100</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3181,6 +3432,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLTR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="92">
   <si>
     <t>PLTR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>341200</v>
+      </c>
+      <c r="E8" s="3">
         <v>322100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>289400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>481200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>229300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>229400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>190500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>176300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>146300</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>74100</v>
+      </c>
+      <c r="E9" s="3">
         <v>70500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>149300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>132700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>64300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>75900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>65100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>56600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>44800</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>267100</v>
+      </c>
+      <c r="E10" s="3">
         <v>251600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>140100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>348500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>165000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>153500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>125400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>119700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>101500</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,40 +839,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>98500</v>
+      </c>
+      <c r="E12" s="3">
         <v>94100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>313900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>152600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>65800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>75800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>75900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>78700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>75100</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,12 +921,12 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -922,8 +942,11 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,23 +991,24 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>455200</v>
+      </c>
+      <c r="E17" s="3">
         <v>478700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1137100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>650500</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -997,23 +1024,26 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-114000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-156600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-847700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-169300</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1029,8 +1059,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,23 +1076,24 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E20" s="3">
         <v>2400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-12000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>18400</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1075,23 +1109,26 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-115300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-150600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-857300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-143200</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1107,8 +1144,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1116,95 +1156,104 @@
         <v>1800</v>
       </c>
       <c r="E22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F22" s="3">
         <v>2100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>10200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
       </c>
       <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-120400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-155900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-861900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-161200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-51700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-155400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-137800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-132700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-141300</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-7600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-8500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,23 +1284,26 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-123500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-148300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-853300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-164700</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1267,23 +1319,26 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-123500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-148300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-853300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-170200</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1299,8 +1354,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,23 +1494,26 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>12000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-18400</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1459,23 +1529,26 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-123500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-148300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-853300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-170200</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1491,8 +1564,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,23 +1599,26 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-123500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-148300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-853300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-170200</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1555,45 +1634,51 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,23 +1706,24 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2339400</v>
+      </c>
+      <c r="E41" s="3">
         <v>2011300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1800200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1497600</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1652,8 +1739,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,23 +1774,26 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>151400</v>
+      </c>
+      <c r="E43" s="3">
         <v>156900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>162300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>106100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1809,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,23 +1844,26 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>98900</v>
+      </c>
+      <c r="E45" s="3">
         <v>89200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>432000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>76500</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1780,23 +1879,26 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2589700</v>
+      </c>
+      <c r="E46" s="3">
         <v>2257400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2394400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1680200</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,8 +1914,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1823,12 +1928,12 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>25300</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1844,22 +1949,25 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>240700</v>
+      </c>
+      <c r="E48" s="3">
         <v>246600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>29400</v>
       </c>
       <c r="F48" s="3">
         <v>29400</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+      <c r="G48" s="3">
+        <v>29400</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1876,8 +1984,11 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,23 +2089,26 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>183800</v>
+      </c>
+      <c r="E52" s="3">
         <v>186500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>179900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>157500</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,23 +2159,26 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3014200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2690500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2603700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1892400</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2068,8 +2194,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,23 +2226,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E57" s="3">
         <v>16400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>22200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,8 +2259,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,23 +2294,26 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>650400</v>
+      </c>
+      <c r="E59" s="3">
         <v>587500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>920000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>588000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,23 +2329,26 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>667600</v>
+      </c>
+      <c r="E60" s="3">
         <v>603800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>942200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>604100</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2224,23 +2364,26 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>198200</v>
+      </c>
+      <c r="E61" s="3">
         <v>198000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>197800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>297600</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2256,23 +2399,26 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>342400</v>
+      </c>
+      <c r="E62" s="3">
         <v>366200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>212000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>261300</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,23 +2539,26 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1208200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1168000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1352000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1163000</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2416,8 +2574,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2506,11 +2674,11 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>2128100</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,23 +2729,26 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5088800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4965400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4817000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3963700</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2590,8 +2764,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,23 +2869,26 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1805900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1522600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1251800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1398700</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2718,8 +2904,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,60 +2939,66 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-123500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-148300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-853300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-170200</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2819,8 +3014,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,23 +3031,24 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E83" s="3">
         <v>3600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7800</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,23 +3239,26 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>116900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-18300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-52000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-226300</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3274,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,23 +3291,24 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5900</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,23 +3394,26 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5700</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3199,8 +3429,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,23 +3584,26 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>206400</v>
+      </c>
+      <c r="E100" s="3">
         <v>219100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>350100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>467300</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3373,23 +3619,26 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E101" s="3">
         <v>1900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3405,23 +3654,26 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>320300</v>
+      </c>
+      <c r="E102" s="3">
         <v>197800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>293300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>235100</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3435,6 +3687,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLTR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
   <si>
     <t>PLTR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>375600</v>
+      </c>
+      <c r="E8" s="3">
         <v>341200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>322100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>289400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>481200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>229300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>229400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>190500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>176300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>146300</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>90900</v>
+      </c>
+      <c r="E9" s="3">
         <v>74100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>70500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>149300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>132700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>64300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>75900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>65100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>56600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>44800</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>284700</v>
+      </c>
+      <c r="E10" s="3">
         <v>267100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>251600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>140100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>348500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>165000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>153500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>125400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>119700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>101500</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>110500</v>
+      </c>
+      <c r="E12" s="3">
         <v>98500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>94100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>313900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>152600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>65800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>75800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>75900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>78700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>75100</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -924,12 +944,12 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,26 +1018,27 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>521800</v>
+      </c>
+      <c r="E17" s="3">
         <v>455200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>478700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1137100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>650500</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1027,26 +1054,29 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-146200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-114000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-156600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-847700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-169300</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1062,8 +1092,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,26 +1110,27 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-12000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>18400</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1112,26 +1146,29 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-138900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-115300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-150600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-857300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-143200</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1147,113 +1184,125 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="E22" s="3">
         <v>1800</v>
       </c>
       <c r="F22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G22" s="3">
         <v>2100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>10200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
       </c>
       <c r="L22" s="3">
+        <v>200</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-144200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-120400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-155900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-861900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-161200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-51700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-155400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-137800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-132700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-141300</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E24" s="3">
         <v>3100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-7600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-8500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5100</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,26 +1336,29 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-138600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-123500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-148300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-853300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-164700</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1322,26 +1374,29 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-138600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-123500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-148300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-853300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-170200</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1357,8 +1412,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,26 +1564,29 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E32" s="3">
         <v>4500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>12000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-18400</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1532,26 +1602,29 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-138600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-123500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-148300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-853300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-170200</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1567,8 +1640,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,26 +1678,29 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-138600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-123500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-148300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-853300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-170200</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1637,48 +1716,54 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,26 +1793,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2341200</v>
+      </c>
+      <c r="E41" s="3">
         <v>2339400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2011300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1800200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1497600</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1742,8 +1829,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,26 +1867,29 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>243000</v>
+      </c>
+      <c r="E43" s="3">
         <v>151400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>156900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>162300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>106100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,8 +1905,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,26 +1943,29 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>78400</v>
+      </c>
+      <c r="E45" s="3">
         <v>98900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>89200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>432000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>76500</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,26 +1981,29 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2662600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2589700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2257400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2394400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1680200</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1917,8 +2019,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1931,12 +2036,12 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>25300</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1952,25 +2057,28 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>234100</v>
+      </c>
+      <c r="E48" s="3">
         <v>240700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>246600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>29400</v>
       </c>
       <c r="G48" s="3">
         <v>29400</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>29400</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1987,8 +2095,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,26 +2209,29 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E52" s="3">
         <v>183800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>186500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>179900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>157500</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,26 +2285,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3075700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3014200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2690500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2603700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1892400</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2197,8 +2323,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,26 +2357,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E57" s="3">
         <v>17200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>16400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>22200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2262,8 +2393,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,26 +2431,29 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>651700</v>
+      </c>
+      <c r="E59" s="3">
         <v>650400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>587500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>920000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>588000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,26 +2469,29 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>682600</v>
+      </c>
+      <c r="E60" s="3">
         <v>667600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>603800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>942200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>604100</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2367,26 +2507,29 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>198200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>198000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>197800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>297600</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2402,26 +2545,29 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>324100</v>
+      </c>
+      <c r="E62" s="3">
         <v>342400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>366200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>212000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>261300</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,26 +2697,29 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1006700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1208200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1168000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1352000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1163000</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2677,11 +2845,11 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>2128100</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,26 +2903,29 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5227400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5088800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4965400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4817000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3963700</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2767,8 +2941,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,26 +3055,29 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2069000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1805900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1522600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1251800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1398700</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2907,8 +3093,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,66 +3131,72 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-138600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-123500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-148300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-853300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-170200</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3017,8 +3212,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,26 +3230,27 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E83" s="3">
         <v>3200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7800</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,26 +3456,29 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E89" s="3">
         <v>116900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-18300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-52000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-226300</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3277,8 +3494,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3301,17 +3522,17 @@
         <v>-700</v>
       </c>
       <c r="E91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5900</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3624,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3406,17 +3636,17 @@
         <v>-700</v>
       </c>
       <c r="E94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-4900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5700</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,26 +3830,29 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E100" s="3">
         <v>206400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>219100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>350100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>467300</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3622,26 +3868,29 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3657,26 +3906,29 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E102" s="3">
         <v>320300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>197800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>293300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>235100</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3690,6 +3942,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLTR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="92">
   <si>
     <t>PLTR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>392100</v>
+      </c>
+      <c r="E8" s="3">
         <v>375600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>341200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>322100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>289400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>481200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>229300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>229400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>190500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>176300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>146300</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>86800</v>
+      </c>
+      <c r="E9" s="3">
         <v>90900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>74100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>70500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>149300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>132700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>64300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>75900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>65100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>56600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>44800</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>305300</v>
+      </c>
+      <c r="E10" s="3">
         <v>284700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>267100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>251600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>140100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>348500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>165000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>153500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>125400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>119700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>101500</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,46 +867,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>94300</v>
+      </c>
+      <c r="E12" s="3">
         <v>110500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>98500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>94100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>313900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>152600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>65800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>75800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>75900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>78700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>75100</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -947,12 +967,12 @@
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -968,8 +988,11 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,29 +1045,30 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>484100</v>
+      </c>
+      <c r="E17" s="3">
         <v>521800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>455200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>478700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1137100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>650500</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1057,29 +1084,32 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-146200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-114000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-156600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-847700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-169300</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1095,8 +1125,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,29 +1144,30 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E20" s="3">
         <v>2500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-12000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>18400</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1149,29 +1183,32 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-138900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-115300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-150600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-857300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-143200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1187,8 +1224,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1196,113 +1236,122 @@
         <v>600</v>
       </c>
       <c r="E22" s="3">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="F22" s="3">
         <v>1800</v>
       </c>
       <c r="G22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H22" s="3">
         <v>2100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>10200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
       </c>
       <c r="M22" s="3">
+        <v>200</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-144200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-120400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-155900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-861900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-161200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-51700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-155400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-137800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-132700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-141300</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-5700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-7600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-8500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5100</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,29 +1388,32 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-102100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-138600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-123500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-148300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-853300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-164700</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1377,29 +1429,32 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-102100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-138600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-123500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-148300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-853300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-170200</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1415,8 +1470,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,29 +1634,32 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>12000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-18400</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1605,29 +1675,32 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-102100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-138600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-123500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-148300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-853300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-170200</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1643,8 +1716,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,29 +1757,32 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-102100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-138600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-123500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-148300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-853300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-170200</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1719,51 +1798,57 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,29 +1880,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2335100</v>
+      </c>
+      <c r="E41" s="3">
         <v>2341200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2339400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2011300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1800200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1497600</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1832,31 +1919,34 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>148100</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1870,29 +1960,32 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>174400</v>
+      </c>
+      <c r="E43" s="3">
         <v>243000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>151400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>156900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>162300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>106100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1908,8 +2001,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,29 +2042,32 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>153900</v>
+      </c>
+      <c r="E45" s="3">
         <v>78400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>98900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>89200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>432000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>76500</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,29 +2083,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2811500</v>
+      </c>
+      <c r="E46" s="3">
         <v>2662600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2589700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2257400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2394400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1680200</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,8 +2124,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2039,12 +2144,12 @@
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
         <v>25300</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2060,28 +2165,31 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>249600</v>
+      </c>
+      <c r="E48" s="3">
         <v>234100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>240700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>246600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>29400</v>
       </c>
       <c r="H48" s="3">
         <v>29400</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>29400</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2098,8 +2206,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,29 +2329,32 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>163200</v>
+      </c>
+      <c r="E52" s="3">
         <v>179000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>183800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>186500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>179900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>157500</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,29 +2411,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3224300</v>
+      </c>
+      <c r="E54" s="3">
         <v>3075700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3014200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2690500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2603700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1892400</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2326,8 +2452,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,29 +2488,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E57" s="3">
         <v>30900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>17200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>22200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2396,8 +2527,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,29 +2568,32 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>663900</v>
+      </c>
+      <c r="E59" s="3">
         <v>651700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>650400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>587500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>920000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>588000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,29 +2609,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>681500</v>
+      </c>
+      <c r="E60" s="3">
         <v>682600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>667600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>603800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>942200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>604100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2510,8 +2650,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2519,20 +2662,20 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>198200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>198000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>197800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>297600</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2548,29 +2691,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>294800</v>
+      </c>
+      <c r="E62" s="3">
         <v>324100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>342400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>366200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>212000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>261300</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,29 +2855,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>976300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1006700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1208200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1168000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1352000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1163000</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2896,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2848,11 +3016,11 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>2128100</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,29 +3077,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5329500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5227400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5088800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4965400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4817000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3963700</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2944,8 +3118,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,29 +3241,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2248100</v>
+      </c>
+      <c r="E76" s="3">
         <v>2069000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1805900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1522600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1251800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1398700</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3282,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,72 +3323,78 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-102100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-138600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-123500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-148300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-853300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-170200</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3215,8 +3410,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,29 +3429,30 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E83" s="3">
         <v>4800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7800</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,29 +3673,32 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100800</v>
+      </c>
+      <c r="E89" s="3">
         <v>22800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>116900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-18300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-52000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-226300</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3497,8 +3714,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,29 +3733,30 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-700</v>
+        <v>-5400</v>
       </c>
       <c r="E91" s="3">
         <v>-700</v>
       </c>
       <c r="F91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G91" s="3">
         <v>-4800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5900</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,29 +3854,32 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-700</v>
+        <v>-214600</v>
       </c>
       <c r="E94" s="3">
         <v>-700</v>
       </c>
       <c r="F94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G94" s="3">
         <v>-4900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5700</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3665,8 +3895,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,29 +4076,32 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>99300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-31400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>206400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>219100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>350100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>467300</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3871,29 +4117,32 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3909,29 +4158,32 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>320300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>197800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>293300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>235100</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3945,6 +4197,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLTR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="92">
   <si>
     <t>PLTR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>432900</v>
+      </c>
+      <c r="E8" s="3">
         <v>392100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>375600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>341200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>322100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>289400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>481200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>229300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>229400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>190500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>176300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>146300</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>87600</v>
+      </c>
+      <c r="E9" s="3">
         <v>86800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>90900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>74100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>70500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>149300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>132700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>64300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>75900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>65100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>56600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>44800</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>345300</v>
+      </c>
+      <c r="E10" s="3">
         <v>305300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>284700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>267100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>251600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>140100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>348500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>165000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>153500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>125400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>119700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>101500</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>84200</v>
+      </c>
+      <c r="E12" s="3">
         <v>94300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>110500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>98500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>94100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>313900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>152600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>65800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>75800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>75900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>78700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>75100</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -970,12 +989,12 @@
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -991,8 +1010,11 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,32 +1071,33 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>491800</v>
+      </c>
+      <c r="E17" s="3">
         <v>484100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>521800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>455200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>478700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1137100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>650500</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1087,32 +1113,35 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-92000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-146200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-114000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-156600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-847700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-169300</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1128,8 +1157,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,32 +1177,33 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-8100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-12000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>18400</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1186,32 +1219,35 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-118700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-97000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-138900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-115300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-150600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-857300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-143200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1227,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1239,119 +1278,128 @@
         <v>600</v>
       </c>
       <c r="F22" s="3">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="G22" s="3">
         <v>1800</v>
       </c>
       <c r="H22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I22" s="3">
         <v>2100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>10200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2700</v>
-      </c>
-      <c r="L22" s="3">
-        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
       </c>
       <c r="N22" s="3">
+        <v>200</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-123200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-144200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-120400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-155900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-861900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-161200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-51700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-155400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-137800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-132700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-141300</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-5700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-7600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-8500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5100</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,32 +1439,35 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-156200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-102100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-138600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-123500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-148300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-853300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-164700</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1432,32 +1483,35 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-156200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-102100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-138600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-123500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-148300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-853300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-170200</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1473,8 +1527,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,32 +1703,35 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E32" s="3">
         <v>8100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>12000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-18400</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1678,32 +1747,35 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-156200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-102100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-138600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-123500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-148300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-853300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-170200</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1719,8 +1791,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,32 +1835,35 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-156200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-102100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-138600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-123500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-148300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-853300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-170200</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1801,54 +1879,60 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,32 +1966,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2290700</v>
+      </c>
+      <c r="E41" s="3">
         <v>2335100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2341200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2339400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2011300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1800200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1497600</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1922,17 +2008,20 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>234200</v>
+      </c>
+      <c r="E42" s="3">
         <v>148100</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1948,8 +2037,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1963,32 +2052,35 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>190900</v>
+      </c>
+      <c r="E43" s="3">
         <v>174400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>243000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>151400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>156900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>162300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>106100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2004,8 +2096,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,32 +2140,35 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>147500</v>
+      </c>
+      <c r="E45" s="3">
         <v>153900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>78400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>98900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>89200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>432000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>76500</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2086,32 +2184,35 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2863300</v>
+      </c>
+      <c r="E46" s="3">
         <v>2811500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2662600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2589700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2257400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2394400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1680200</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2228,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2147,12 +2251,12 @@
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
         <v>25300</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2168,31 +2272,34 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>248200</v>
+      </c>
+      <c r="E48" s="3">
         <v>249600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>234100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>240700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>246600</v>
-      </c>
-      <c r="H48" s="3">
-        <v>29400</v>
       </c>
       <c r="I48" s="3">
         <v>29400</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>29400</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2209,8 +2316,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,32 +2448,35 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E52" s="3">
         <v>163200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>179000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>183800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>186500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>179900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>157500</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,32 +2536,35 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3247500</v>
+      </c>
+      <c r="E54" s="3">
         <v>3224300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3075700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3014200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2690500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2603700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1892400</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2455,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,32 +2618,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>74900</v>
+      </c>
+      <c r="E57" s="3">
         <v>17700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>30900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>17200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>22200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,8 +2660,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2571,32 +2704,35 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>585200</v>
+      </c>
+      <c r="E59" s="3">
         <v>663900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>651700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>650400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>587500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>920000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>588000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2612,32 +2748,35 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>660100</v>
+      </c>
+      <c r="E60" s="3">
         <v>681500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>682600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>667600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>603800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>942200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>604100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2653,8 +2792,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2665,20 +2807,20 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>198200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>198000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>197800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>297600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2694,32 +2836,35 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>296400</v>
+      </c>
+      <c r="E62" s="3">
         <v>294800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>324100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>342400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>366200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>212000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>261300</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,32 +3012,35 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>956400</v>
+      </c>
+      <c r="E66" s="3">
         <v>976300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1006700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1208200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1168000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1352000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1163000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3019,11 +3186,11 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>2128100</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,32 +3250,35 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5485700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5329500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5227400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5088800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4965400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4817000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3963700</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3121,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,32 +3426,35 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2291000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2248100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2069000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1805900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1522600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1251800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1398700</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3285,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,78 +3514,84 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-156200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-102100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-138600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-123500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-148300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-853300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-170200</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3413,8 +3607,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,32 +3627,33 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E83" s="3">
         <v>3100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7800</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3669,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,32 +3889,35 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>93400</v>
+      </c>
+      <c r="E89" s="3">
         <v>100800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>22800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>116900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-18300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-52000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-226300</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3717,8 +3933,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,32 +3953,33 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5400</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-700</v>
       </c>
       <c r="F91" s="3">
         <v>-700</v>
       </c>
       <c r="G91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H91" s="3">
         <v>-4800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5900</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3775,8 +3995,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,32 +4083,35 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-181900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-214600</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-700</v>
       </c>
       <c r="F94" s="3">
         <v>-700</v>
       </c>
       <c r="G94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H94" s="3">
         <v>-4900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5700</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3898,8 +4127,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,32 +4321,35 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E100" s="3">
         <v>99300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-31400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>206400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>219100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>350100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>467300</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4120,32 +4365,35 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4161,32 +4409,35 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-16600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>320300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>197800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>293300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>235100</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4200,6 +4451,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLTR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
   <si>
     <t>PLTR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>446400</v>
+      </c>
+      <c r="E8" s="3">
         <v>432900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>392100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>375600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>341200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>322100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>289400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>481200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>229300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>229400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>190500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>176300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>146300</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>94400</v>
+      </c>
+      <c r="E9" s="3">
         <v>87600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>86800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>90900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>74100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>70500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>149300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>132700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>64300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>75900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>65100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>56600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>44800</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>352000</v>
+      </c>
+      <c r="E10" s="3">
         <v>345300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>305300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>284700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>267100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>251600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>140100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>348500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>165000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>153500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>125400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>119700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>101500</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>88600</v>
+      </c>
+      <c r="E12" s="3">
         <v>84200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>94300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>110500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>98500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>94100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>313900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>152600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>65800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>75800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>75900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>78700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>75100</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -992,12 +1012,12 @@
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,35 +1098,36 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>485800</v>
+      </c>
+      <c r="E17" s="3">
         <v>491800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>484100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>521800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>455200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>478700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1137100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>650500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1116,35 +1143,38 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-58900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-92000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-146200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-114000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-156600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-847700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-169300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1160,8 +1190,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,35 +1211,36 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-59400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-63700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-8100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-12000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>18400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1222,35 +1256,38 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-94500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-118700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-97000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-138900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-115300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-150600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-857300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-143200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1281,125 +1321,134 @@
         <v>600</v>
       </c>
       <c r="G22" s="3">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="H22" s="3">
         <v>1800</v>
       </c>
       <c r="I22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J22" s="3">
         <v>2100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>10200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2700</v>
-      </c>
-      <c r="M22" s="3">
-        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
       </c>
       <c r="O22" s="3">
+        <v>200</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-99400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-123200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-144200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-120400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-155900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-861900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-161200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-51700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-155400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-137800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-132700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-141300</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>33000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-5700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-7600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-8500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5100</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,35 +1491,38 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-101400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-156200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-102100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-138600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-123500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-148300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-853300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-164700</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1486,35 +1538,38 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-101400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-156200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-102100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-138600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-123500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-148300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-853300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-170200</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1530,8 +1585,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,35 +1773,38 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>59400</v>
+      </c>
+      <c r="E32" s="3">
         <v>63700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>8100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>12000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-18400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1750,35 +1820,38 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-101400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-156200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-102100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-138600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-123500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-148300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-853300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-170200</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1794,8 +1867,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,35 +1914,38 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-101400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-156200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-102100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-138600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-123500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-148300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-853300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-170200</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,57 +1961,63 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,35 +2053,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2269400</v>
+      </c>
+      <c r="E41" s="3">
         <v>2290700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2335100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2341200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2339400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2011300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1800200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1497600</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,20 +2098,23 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>252600</v>
+      </c>
+      <c r="E42" s="3">
         <v>234200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>148100</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2040,8 +2130,8 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2055,35 +2145,38 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>256600</v>
+      </c>
+      <c r="E43" s="3">
         <v>190900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>174400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>243000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>151400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>156900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>162300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>106100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,35 +2239,38 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>148800</v>
+      </c>
+      <c r="E45" s="3">
         <v>147500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>153900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>78400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>98900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>89200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>432000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>76500</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,35 +2286,38 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2927400</v>
+      </c>
+      <c r="E46" s="3">
         <v>2863300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2811500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2662600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2589700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2257400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2394400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1680200</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2254,12 +2359,12 @@
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
         <v>25300</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2275,34 +2380,37 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>266800</v>
+      </c>
+      <c r="E48" s="3">
         <v>248200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>249600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>234100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>240700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>246600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>29400</v>
       </c>
       <c r="J48" s="3">
         <v>29400</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>29400</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,35 +2568,38 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>125100</v>
+      </c>
+      <c r="E52" s="3">
         <v>136000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>163200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>179000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>183800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>186500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>179900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>157500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,35 +2662,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3319200</v>
+      </c>
+      <c r="E54" s="3">
         <v>3247500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3224300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3075700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3014200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2690500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2603700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1892400</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,35 +2749,36 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E57" s="3">
         <v>74900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>17700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>30900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>22200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,35 +2841,38 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>641700</v>
+      </c>
+      <c r="E59" s="3">
         <v>585200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>663900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>651700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>650400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>587500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>920000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>588000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,35 +2888,38 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>669100</v>
+      </c>
+      <c r="E60" s="3">
         <v>660100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>681500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>682600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>667600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>603800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>942200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>604100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2810,20 +2953,20 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>198200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>198000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>197800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>297600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2839,35 +2982,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>285300</v>
+      </c>
+      <c r="E62" s="3">
         <v>296400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>294800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>324100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>342400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>366200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>212000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>261300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,35 +3170,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>954400</v>
+      </c>
+      <c r="E66" s="3">
         <v>956400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>976300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1006700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1208200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1168000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1352000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1163000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3189,11 +3357,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>2128100</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,35 +3424,38 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5587100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5485700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5329500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5227400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5088800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4965400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4817000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3963700</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,35 +3612,38 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2364700</v>
+      </c>
+      <c r="E76" s="3">
         <v>2291000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2248100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2069000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1805900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1522600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1251800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1398700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,84 +3706,90 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-101400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-156200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-102100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-138600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-123500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-148300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-853300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-170200</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3610,8 +3805,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,35 +3826,36 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E83" s="3">
         <v>3800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7800</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,35 +4106,38 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E89" s="3">
         <v>93400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>22800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>116900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-18300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-52000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-226300</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,35 +4174,36 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5400</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-700</v>
       </c>
       <c r="G91" s="3">
         <v>-700</v>
       </c>
       <c r="H91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I91" s="3">
         <v>-4800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5900</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,35 +4313,38 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-96500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-181900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-214600</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-700</v>
       </c>
       <c r="G94" s="3">
         <v>-700</v>
       </c>
       <c r="H94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I94" s="3">
         <v>-4900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5700</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,35 +4567,38 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E100" s="3">
         <v>32500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>99300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-31400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>206400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>219100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>350100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>467300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4368,35 +4614,38 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4412,35 +4661,38 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-56300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-16600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>320300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>197800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>293300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>235100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLTR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
   <si>
     <t>PLTR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>473000</v>
+      </c>
+      <c r="E8" s="3">
         <v>446400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>432900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>392100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>375600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>341200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>322100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>289400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>481200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>229300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>229400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>190500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>176300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>146300</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>102200</v>
+      </c>
+      <c r="E9" s="3">
         <v>94400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>87600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>86800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>90900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>74100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>70500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>149300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>132700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>64300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>75900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>65100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>56600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>44800</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>370800</v>
+      </c>
+      <c r="E10" s="3">
         <v>352000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>345300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>305300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>284700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>267100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>251600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>140100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>348500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>165000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>153500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>125400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>119700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>101500</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>88200</v>
+      </c>
+      <c r="E12" s="3">
         <v>88600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>84200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>94300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>110500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>98500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>94100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>313900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>152600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>65800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>75800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>75900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>78700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>75100</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1015,12 +1035,12 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
         <v>700</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,38 +1125,39 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>514800</v>
+      </c>
+      <c r="E17" s="3">
         <v>485800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>491800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>484100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>521800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>455200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>478700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1137100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>650500</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,38 +1173,41 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-39400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-58900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-92000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-146200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-114000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-156600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-847700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-169300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1193,8 +1223,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,38 +1245,39 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-134300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-59400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-63700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-8100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-12000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>18400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1259,38 +1293,41 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-171200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-94500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-118700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-97000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-138900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-115300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-150600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-857300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-143200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,13 +1343,16 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E22" s="3">
         <v>600</v>
@@ -1324,131 +1364,140 @@
         <v>600</v>
       </c>
       <c r="H22" s="3">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="I22" s="3">
         <v>1800</v>
       </c>
       <c r="J22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K22" s="3">
         <v>2100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2700</v>
-      </c>
-      <c r="N22" s="3">
-        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
       </c>
       <c r="P22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-176700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-99400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-123200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-144200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-120400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-155900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-861900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-161200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-51700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-155400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-137800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-132700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-141300</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>33000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-5700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-7600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-8500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5100</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,38 +1543,41 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-179300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-101400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-156200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-102100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-138600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-123500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-148300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-853300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-164700</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1541,38 +1593,41 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-179300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-101400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-156200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-102100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-138600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-123500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-148300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-853300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-170200</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1588,8 +1643,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,38 +1843,41 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>134300</v>
+      </c>
+      <c r="E32" s="3">
         <v>59400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>63700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>8100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>12000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-18400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1823,38 +1893,41 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-179300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-101400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-156200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-102100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-138600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-123500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-148300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-853300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-170200</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1870,8 +1943,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,38 +1993,41 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-179300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-101400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-156200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-102100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-138600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-123500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-148300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-853300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-170200</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1964,60 +2043,66 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,38 +2140,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2358400</v>
+      </c>
+      <c r="E41" s="3">
         <v>2269400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2290700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2335100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2341200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2339400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2011300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1800200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1497600</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2101,23 +2188,26 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>99200</v>
+      </c>
+      <c r="E42" s="3">
         <v>252600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>234200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>148100</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2133,8 +2223,8 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2148,38 +2238,41 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>265800</v>
+      </c>
+      <c r="E43" s="3">
         <v>256600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>190900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>174400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>243000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>151400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>156900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>162300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>106100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,38 +2338,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E45" s="3">
         <v>148800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>147500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>153900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>78400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>98900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>89200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>432000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>76500</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,38 +2388,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2902400</v>
+      </c>
+      <c r="E46" s="3">
         <v>2927400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2863300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2811500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2662600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2589700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2257400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2394400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1680200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2336,38 +2438,41 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
         <v>25300</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2383,37 +2488,40 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>259100</v>
+      </c>
+      <c r="E48" s="3">
         <v>266800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>248200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>249600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>234100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>240700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>246600</v>
-      </c>
-      <c r="J48" s="3">
-        <v>29400</v>
       </c>
       <c r="K48" s="3">
         <v>29400</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="L48" s="3">
+        <v>29400</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,38 +2688,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>120800</v>
+      </c>
+      <c r="E52" s="3">
         <v>125100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>136000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>163200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>179000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>183800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>186500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>179900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>157500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,38 +2788,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3282300</v>
+      </c>
+      <c r="E54" s="3">
         <v>3319200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3247500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3224300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3075700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3014200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2690500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2603700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1892400</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,38 +2880,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E57" s="3">
         <v>27500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>74900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>17700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>30900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>22200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,38 +2978,41 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>608900</v>
+      </c>
+      <c r="E59" s="3">
         <v>641700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>585200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>663900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>651700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>650400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>587500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>920000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>588000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2891,38 +3028,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>665700</v>
+      </c>
+      <c r="E60" s="3">
         <v>669100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>660100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>681500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>682600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>667600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>603800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>942200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>604100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2938,8 +3078,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2956,20 +3099,20 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>198200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>198000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>197800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>297600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2985,38 +3128,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>267800</v>
+      </c>
+      <c r="E62" s="3">
         <v>285300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>296400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>294800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>324100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>342400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>366200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>212000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>261300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,38 +3328,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>933500</v>
+      </c>
+      <c r="E66" s="3">
         <v>954400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>956400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>976300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1006700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1208200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1168000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1352000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1163000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3360,11 +3528,11 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>2128100</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,38 +3598,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5766400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5587100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5485700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5329500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5227400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5088800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4965400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4817000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3963700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,38 +3798,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2348800</v>
+      </c>
+      <c r="E76" s="3">
         <v>2364700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2291000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2248100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2069000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1805900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1522600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1251800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1398700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,90 +3898,96 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-179300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-101400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-156200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-102100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-138600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-123500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-148300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-853300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-170200</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3808,8 +4003,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,38 +4025,39 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E83" s="3">
         <v>4300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7800</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,38 +4323,41 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E89" s="3">
         <v>35500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>93400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>100800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>22800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>116900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-18300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-52000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-226300</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,38 +4395,39 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-700</v>
       </c>
       <c r="H91" s="3">
         <v>-700</v>
       </c>
       <c r="I91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J91" s="3">
         <v>-4800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5900</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,38 +4543,41 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-96500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-181900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-214600</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-700</v>
       </c>
       <c r="H94" s="3">
         <v>-700</v>
       </c>
       <c r="I94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J94" s="3">
         <v>-4900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5700</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,38 +4813,41 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E100" s="3">
         <v>27200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>32500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>99300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-31400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>206400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>219100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>350100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>467300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4617,38 +4863,41 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4664,38 +4913,41 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>82700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-34500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-56300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-16600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>320300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>197800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>293300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>235100</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4709,6 +4961,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLTR_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53974DA-5E6C-4AD4-95B3-972D1EDC54AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLTR" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
   <si>
     <t>PLTR</t>
   </si>
@@ -303,7 +304,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,11 +689,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -676,21 +713,20 @@
     <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -736,11 +772,8 @@
       <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -786,11 +819,8 @@
       <c r="Q8" s="3">
         <v>146300</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,11 +866,8 @@
       <c r="Q9" s="3">
         <v>44800</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,11 +913,8 @@
       <c r="Q10" s="3">
         <v>101500</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,9 +932,8 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -956,11 +979,8 @@
       <c r="Q12" s="3">
         <v>75100</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,11 +1026,8 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-      <c r="R13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,11 +1073,8 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,11 +1120,8 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,9 +1136,8 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1173,11 +1183,8 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1223,11 +1230,8 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,9 +1249,8 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1293,11 +1296,8 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1343,11 +1343,8 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1393,11 +1390,8 @@
       <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1443,11 +1437,8 @@
       <c r="Q23" s="3">
         <v>-141300</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1493,11 +1484,8 @@
       <c r="Q24" s="3">
         <v>5100</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,11 +1531,8 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-      <c r="R25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1593,11 +1578,8 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1643,11 +1625,8 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,11 +1672,8 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-      <c r="R28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,11 +1719,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,11 +1766,8 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-      <c r="R30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,11 +1813,8 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-      <c r="R31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1893,11 +1860,8 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1943,11 +1907,8 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,11 +1954,8 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-      <c r="R34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2043,16 +2001,13 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -2098,11 +2053,8 @@
       <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,9 +2072,8 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,9 +2091,8 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2188,11 +2138,8 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2238,11 +2185,8 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2288,11 +2232,8 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2338,11 +2279,8 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2388,11 +2326,8 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2438,11 +2373,8 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2488,11 +2420,8 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2538,11 +2467,8 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2588,11 +2514,8 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,11 +2561,8 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-      <c r="R50" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,11 +2608,8 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-      <c r="R51" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2738,11 +2655,8 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,11 +2702,8 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-      <c r="R53" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2838,11 +2749,8 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,9 +2768,8 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,9 +2787,8 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2928,11 +2834,8 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2978,11 +2881,8 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3028,11 +2928,8 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3078,11 +2975,8 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3128,11 +3022,8 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3178,11 +3069,8 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,11 +3116,8 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-      <c r="R63" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,11 +3163,8 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-      <c r="R64" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,11 +3210,8 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-      <c r="R65" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3378,11 +3257,8 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,9 +3276,8 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,11 +3323,8 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-      <c r="R68" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,11 +3370,8 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-      <c r="R69" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3548,11 +3417,8 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,11 +3464,8 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-      <c r="R71" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3648,11 +3511,8 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,11 +3558,8 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-      <c r="R73" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,11 +3605,8 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-      <c r="R74" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,11 +3652,8 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-      <c r="R75" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3848,11 +3699,8 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,16 +3746,13 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-      <c r="R77" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -3953,11 +3798,8 @@
       <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4003,11 +3845,8 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,9 +3864,8 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-      <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4073,11 +3911,8 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,11 +3958,8 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-      <c r="R84" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,11 +4005,8 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-      <c r="R85" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,11 +4052,8 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-      <c r="R86" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,11 +4099,8 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-      <c r="R87" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,11 +4146,8 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-      <c r="R88" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4373,11 +4193,8 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,9 +4212,8 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-      <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4443,11 +4259,8 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,11 +4306,8 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-      <c r="R92" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,11 +4353,8 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-      <c r="R93" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4593,11 +4400,8 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,9 +4419,8 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-      <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,11 +4466,8 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,11 +4513,8 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-      <c r="R97" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,11 +4560,8 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-      <c r="R98" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,11 +4607,8 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-      <c r="R99" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4863,11 +4654,8 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4913,11 +4701,8 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4961,9 +4746,6 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLTR_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53974DA-5E6C-4AD4-95B3-972D1EDC54AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="PLTR" sheetId="6" r:id="rId1"/>
@@ -18,12 +17,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
   <si>
     <t>PLTR</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,232 +654,243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>477900</v>
+      </c>
+      <c r="E8" s="3">
         <v>473000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>446400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>432900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>392100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>375600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>341200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>322100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>289400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>481200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>229300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>229400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>190500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>176300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>146300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>107600</v>
+      </c>
+      <c r="E9" s="3">
         <v>102200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>94400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>87600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>86800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>90900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>74100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>70500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>149300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>132700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>64300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>75900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>65100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>56600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>370300</v>
+      </c>
+      <c r="E10" s="3">
         <v>370800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>352000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>345300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>305300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>284700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>267100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>251600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>140100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>348500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>165000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>153500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>125400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>119700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>101500</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -932,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100900</v>
+      </c>
+      <c r="E12" s="3">
         <v>88200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>88600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>84200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>94300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>110500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>98500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>94100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>313900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>152600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>65800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>75800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>75900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>78700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>75100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1055,12 +1038,12 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
         <v>700</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1073,8 +1056,11 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1120,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1136,41 +1125,42 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>540100</v>
+      </c>
+      <c r="E17" s="3">
         <v>514800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>485800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>491800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>484100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>521800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>455200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>478700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1137100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>650500</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,41 +1173,44 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-62200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-41800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-39400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-58900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-92000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-146200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-114000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-156600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-847700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-169300</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1230,8 +1223,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1249,41 +1245,42 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-59500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-134300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-59400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-63700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-8100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>18400</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1296,41 +1293,44 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-115800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-171200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-94500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-118700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-97000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-138900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-115300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-150600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-857300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-143200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,16 +1343,19 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
-      </c>
-      <c r="E22" s="3">
-        <v>600</v>
       </c>
       <c r="F22" s="3">
         <v>600</v>
@@ -1364,128 +1367,137 @@
         <v>600</v>
       </c>
       <c r="I22" s="3">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="J22" s="3">
         <v>1800</v>
       </c>
       <c r="K22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L22" s="3">
         <v>2100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2700</v>
-      </c>
-      <c r="O22" s="3">
-        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>200</v>
       </c>
       <c r="Q22" s="3">
+        <v>200</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-122800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-176700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-99400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-123200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-144200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-120400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-155900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-861900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-161200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-51700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-155400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-137800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-132700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-141300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>2600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>33000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-5700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-7600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-8500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1531,41 +1543,44 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-123900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-179300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-101400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-156200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-102100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-138600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-123500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-148300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-853300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-164700</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1578,41 +1593,44 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-123900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-179300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-101400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-156200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-102100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-138600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-123500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-148300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-853300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-170200</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1625,8 +1643,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1672,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1719,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1766,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1813,41 +1843,44 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E32" s="3">
         <v>134300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>59400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>63700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>8100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-18400</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1860,41 +1893,44 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-123900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-179300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-101400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-156200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-102100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-138600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-123500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-148300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-853300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-170200</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1907,8 +1943,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1954,41 +1993,44 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-123900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-179300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-101400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-156200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-102100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-138600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-123500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-148300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-853300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-170200</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2001,60 +2043,66 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2072,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2091,41 +2140,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2411300</v>
+      </c>
+      <c r="E41" s="3">
         <v>2358400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2269400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2290700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2335100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2341200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2339400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2011300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1800200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1497600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2138,26 +2188,29 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E42" s="3">
         <v>99200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>252600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>234200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>148100</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2173,8 +2226,8 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2185,41 +2238,44 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>343300</v>
+      </c>
+      <c r="E43" s="3">
         <v>265800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>256600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>190900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>174400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>243000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>151400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>156900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>162300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>106100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2232,8 +2288,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2279,41 +2338,44 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>134700</v>
+      </c>
+      <c r="E45" s="3">
         <v>179000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>148800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>147500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>153900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>78400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>98900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>89200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>432000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>76500</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2326,41 +2388,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2946600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2902400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2927400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2863300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2811500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2662600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2589700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2257400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2394400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1680200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2373,8 +2438,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2399,15 +2467,15 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
         <v>25300</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2420,40 +2488,43 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>257200</v>
+      </c>
+      <c r="E48" s="3">
         <v>259100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>266800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>248200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>249600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>234100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>240700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>246600</v>
-      </c>
-      <c r="K48" s="3">
-        <v>29400</v>
       </c>
       <c r="L48" s="3">
         <v>29400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
+      <c r="M48" s="3">
+        <v>29400</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
@@ -2467,8 +2538,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2514,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2561,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2608,41 +2688,44 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E52" s="3">
         <v>120800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>125100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>136000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>163200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>179000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>183800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>186500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>179900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>157500</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2655,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2702,41 +2788,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3318800</v>
+      </c>
+      <c r="E54" s="3">
         <v>3282300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3319200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3247500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3224300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3075700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3014200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2690500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2603700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1892400</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2749,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2768,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2787,41 +2880,42 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E57" s="3">
         <v>56800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>27500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>74900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>30900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>17200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>22200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2834,8 +2928,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2881,41 +2978,44 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>628800</v>
+      </c>
+      <c r="E59" s="3">
         <v>608900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>641700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>585200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>663900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>651700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>650400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>587500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>920000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>588000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2928,41 +3028,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>688400</v>
+      </c>
+      <c r="E60" s="3">
         <v>665700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>669100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>660100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>681500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>682600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>667600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>603800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>942200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>604100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2975,8 +3078,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2996,20 +3102,20 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>198200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>198000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>197800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>297600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3022,41 +3128,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>243900</v>
+      </c>
+      <c r="E62" s="3">
         <v>267800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>285300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>296400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>294800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>324100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>342400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>366200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>212000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>261300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3069,8 +3178,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3116,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3163,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3210,41 +3328,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>932200</v>
+      </c>
+      <c r="E66" s="3">
         <v>933500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>954400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>956400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>976300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1006700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1208200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1168000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1352000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1163000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3257,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3276,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3323,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3370,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3400,11 +3531,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>2128100</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3417,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3464,41 +3598,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5890300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5766400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5587100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5485700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5329500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5227400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5088800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4965400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4817000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3963700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3511,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3558,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3605,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3652,41 +3798,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2386600</v>
+      </c>
+      <c r="E76" s="3">
         <v>2348800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2364700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2291000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2248100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2069000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1805900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1522600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1251800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1398700</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3699,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3746,93 +3898,99 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-123900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-179300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-101400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-156200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-102100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-138600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-123500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-148300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-853300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-170200</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3845,8 +4003,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3864,41 +4025,42 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E83" s="3">
         <v>4900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7800</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3911,8 +4073,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3958,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4005,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4052,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4099,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4146,41 +4323,44 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E89" s="3">
         <v>62400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>35500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>93400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>100800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>22800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>116900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-18300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-52000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-226300</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4193,8 +4373,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4212,41 +4395,42 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5400</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-700</v>
       </c>
       <c r="I91" s="3">
         <v>-700</v>
       </c>
       <c r="J91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5900</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4259,8 +4443,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4306,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4353,41 +4543,44 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="E94" s="3">
         <v>5300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-96500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-181900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-214600</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-700</v>
       </c>
       <c r="I94" s="3">
         <v>-700</v>
       </c>
       <c r="J94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5700</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4400,8 +4593,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4419,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4466,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4513,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4560,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4607,41 +4813,44 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E100" s="3">
         <v>20600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>27200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>32500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>99300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-31400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>206400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>219100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>350100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>467300</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4654,41 +4863,44 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4701,41 +4913,44 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E102" s="3">
         <v>82700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-34500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-56300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-16600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>320300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>197800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>293300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>235100</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4746,6 +4961,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLTR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>PLTR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>508600</v>
+      </c>
+      <c r="E8" s="3">
         <v>477900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>473000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>446400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>432900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>392100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>375600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>341200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>322100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>289400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>481200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>229300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>229400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>190500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>176300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>146300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>104300</v>
+      </c>
+      <c r="E9" s="3">
         <v>107600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>102200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>94400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>87600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>86800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>90900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>74100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>70500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>149300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>132700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>64300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>75900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>65100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>56600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>404300</v>
+      </c>
+      <c r="E10" s="3">
         <v>370300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>370800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>352000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>345300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>305300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>284700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>267100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>251600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>140100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>348500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>165000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>153500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>125400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>119700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>101500</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E12" s="3">
         <v>100900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>88200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>88600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>84200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>94300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>110500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>98500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>94100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>313900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>152600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>65800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>75800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>75900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>78700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>75100</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1041,12 +1060,12 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
         <v>700</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,44 +1151,45 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>526500</v>
+      </c>
+      <c r="E17" s="3">
         <v>540100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>514800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>485800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>491800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>484100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>521800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>455200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>478700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1137100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>650500</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1176,44 +1202,47 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-62200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-41800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-39400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-58900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-92000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-146200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-114000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-156600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-847700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-169300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1226,8 +1255,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,44 +1278,45 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-59500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-134300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-59400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-63700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-8100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>18400</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1296,44 +1329,47 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-115800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-171200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-94500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-118700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-97000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-138900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-115300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-150600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-857300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-143200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1346,19 +1382,22 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E22" s="3">
         <v>1100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>700</v>
-      </c>
-      <c r="F22" s="3">
-        <v>600</v>
       </c>
       <c r="G22" s="3">
         <v>600</v>
@@ -1370,134 +1409,143 @@
         <v>600</v>
       </c>
       <c r="J22" s="3">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="K22" s="3">
         <v>1800</v>
       </c>
       <c r="L22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M22" s="3">
         <v>2100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2700</v>
-      </c>
-      <c r="P22" s="3">
-        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>200</v>
       </c>
       <c r="R22" s="3">
+        <v>200</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-122800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-176700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-99400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-123200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-144200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-120400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-155900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-861900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-161200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-51700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-155400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-137800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-132700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-141300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>33000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-5700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-7600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-8500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,44 +1594,47 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-123900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-179300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-101400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-156200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-102100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-138600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-123500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-148300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-853300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-164700</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1596,44 +1647,47 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-123900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-179300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-101400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-156200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-102100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-138600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-123500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-148300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-853300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-170200</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1646,8 +1700,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,44 +1912,47 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="E32" s="3">
         <v>59500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>134300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>59400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>63700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>8100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-18400</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1896,44 +1965,47 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-123900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-179300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-101400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-156200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-102100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-138600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-123500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-148300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-853300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-170200</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1946,8 +2018,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,44 +2071,47 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-123900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-179300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-101400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-156200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-102100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-138600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-123500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-148300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-853300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-170200</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2046,63 +2124,69 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,44 +2226,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2598500</v>
+      </c>
+      <c r="E41" s="3">
         <v>2411300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2358400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2269400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2290700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2335100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2341200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2339400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2011300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1800200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1497600</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,29 +2277,32 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E42" s="3">
         <v>57300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>99200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>252600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>234200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>148100</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,8 +2318,8 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2241,44 +2330,47 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>258300</v>
+      </c>
+      <c r="E43" s="3">
         <v>343300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>265800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>256600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>190900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>174400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>243000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>151400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>156900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>162300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>106100</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2291,8 +2383,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,44 +2436,47 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>149600</v>
+      </c>
+      <c r="E45" s="3">
         <v>134700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>179000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>148800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>147500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>153900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>78400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>98900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>89200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>432000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>76500</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2391,44 +2489,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3041600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2946600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2902400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2927400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2863300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2811500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2662600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2589700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2257400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2394400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1680200</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2441,8 +2542,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2470,15 +2574,15 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3">
         <v>25300</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,43 +2595,46 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>269400</v>
+      </c>
+      <c r="E48" s="3">
         <v>257200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>259100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>266800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>248200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>249600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>234100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>240700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>246600</v>
-      </c>
-      <c r="L48" s="3">
-        <v>29400</v>
       </c>
       <c r="M48" s="3">
         <v>29400</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
+      <c r="N48" s="3">
+        <v>29400</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
@@ -2541,8 +2648,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,44 +2807,47 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>150300</v>
+      </c>
+      <c r="E52" s="3">
         <v>115000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>120800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>125100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>136000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>163200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>179000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>183800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>186500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>179900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>157500</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,44 +2913,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3461200</v>
+      </c>
+      <c r="E54" s="3">
         <v>3318800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3282300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3319200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3247500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3224300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3075700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3014200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2690500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2603700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1892400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,44 +3010,45 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E57" s="3">
         <v>59500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>56800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>27500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>74900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>30900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>17200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>22200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2931,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,44 +3114,47 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>543200</v>
+      </c>
+      <c r="E59" s="3">
         <v>628800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>608900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>641700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>585200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>663900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>651700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>650400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>587500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>920000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>588000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,44 +3167,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>587900</v>
+      </c>
+      <c r="E60" s="3">
         <v>688400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>665700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>669100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>660100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>681500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>682600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>667600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>603800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>942200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>604100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3081,8 +3220,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3105,20 +3247,20 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>198200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>198000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>197800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>297600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3131,44 +3273,47 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>230900</v>
+      </c>
+      <c r="E62" s="3">
         <v>243900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>267800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>285300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>296400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>294800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>324100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>342400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>366200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>212000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>261300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,44 +3485,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>895900</v>
+      </c>
+      <c r="E66" s="3">
         <v>932200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>933500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>954400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>956400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>976300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1006700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1208200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1168000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1352000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1163000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3534,11 +3701,11 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>2128100</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,44 +3771,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5859400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5890300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5766400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5587100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5485700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5329500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5227400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5088800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4965400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4817000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3963700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,44 +3983,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2565300</v>
+      </c>
+      <c r="E76" s="3">
         <v>2386600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2348800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2364700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2291000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2248100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2069000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1805900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1522600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1251800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1398700</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3851,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,99 +4089,105 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-123900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-179300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-101400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-156200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-102100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-138600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-123500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-148300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-853300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-170200</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4006,8 +4200,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,44 +4223,45 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E83" s="3">
         <v>5900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7800</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,44 +4539,47 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>78800</v>
+      </c>
+      <c r="E89" s="3">
         <v>47100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>62400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>35500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>93400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>100800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>22800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>116900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-18300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-52000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-226300</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4376,8 +4592,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,44 +4615,45 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-700</v>
       </c>
       <c r="J91" s="3">
         <v>-700</v>
       </c>
       <c r="K91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L91" s="3">
         <v>-4800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5900</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4446,8 +4666,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,44 +4772,47 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-27300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>5300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-96500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-181900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-214600</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-700</v>
       </c>
       <c r="J94" s="3">
         <v>-700</v>
       </c>
       <c r="K94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L94" s="3">
         <v>-4900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5700</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4596,8 +4825,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,44 +5058,47 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E100" s="3">
         <v>24000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>20600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>27200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>32500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>99300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-31400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>206400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>219100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>350100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>467300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4866,44 +5111,47 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4916,44 +5164,47 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>174600</v>
+      </c>
+      <c r="E102" s="3">
         <v>37600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>82700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-34500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-56300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-16600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>320300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>197800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>293300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>235100</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4964,6 +5215,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLTR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
   <si>
     <t>PLTR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>525200</v>
+      </c>
+      <c r="E8" s="3">
         <v>508600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>477900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>473000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>446400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>432900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>392100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>375600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>341200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>322100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>289400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>481200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>229300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>229400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>190500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>176300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>146300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>107600</v>
+      </c>
+      <c r="E9" s="3">
         <v>104300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>107600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>102200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>94400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>87600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>86800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>90900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>74100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>70500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>149300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>132700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>64300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>75900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>65100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>56600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>417600</v>
+      </c>
+      <c r="E10" s="3">
         <v>404300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>370300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>370800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>352000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>345300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>305300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>284700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>267100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>251600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>140100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>348500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>165000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>153500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>125400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>119700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>101500</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>90100</v>
+      </c>
+      <c r="E12" s="3">
         <v>82000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>100900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>88200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>88600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>84200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>94300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>110500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>98500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>94100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>313900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>152600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>65800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>75800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>75900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>78700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>75100</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1063,12 +1083,12 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
         <v>700</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,47 +1178,48 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>521100</v>
+      </c>
+      <c r="E17" s="3">
         <v>526500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>540100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>514800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>485800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>491800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>484100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>521800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>455200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>478700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1137100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>650500</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1205,47 +1232,50 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-17900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-62200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-41800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-39400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-58900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-92000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-146200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-114000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-156600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-847700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-169300</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,47 +1312,48 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E20" s="3">
         <v>57400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-59500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-134300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-59400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-63700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-8100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-12000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>18400</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1332,47 +1366,50 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E21" s="3">
         <v>46900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-115800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-171200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-94500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-118700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-97000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-138900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-115300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-150600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-857300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-143200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1385,22 +1422,25 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
         <v>1700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
-      </c>
-      <c r="G22" s="3">
-        <v>600</v>
       </c>
       <c r="H22" s="3">
         <v>600</v>
@@ -1412,140 +1452,149 @@
         <v>600</v>
       </c>
       <c r="K22" s="3">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="L22" s="3">
         <v>1800</v>
       </c>
       <c r="M22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N22" s="3">
         <v>2100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2700</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>200</v>
       </c>
       <c r="R22" s="3">
         <v>200</v>
       </c>
       <c r="S22" s="3">
+        <v>200</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E23" s="3">
         <v>37800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-122800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-176700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-99400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-123200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-144200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-120400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-155900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-861900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-161200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-51700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-155400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-137800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-132700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-141300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E24" s="3">
         <v>4400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>33000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-7600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-8500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,47 +1646,50 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E26" s="3">
         <v>33500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-123900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-179300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-101400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-156200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-102100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-138600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-123500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-148300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-853300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-164700</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,47 +1702,50 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E27" s="3">
         <v>30900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-123900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-179300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-101400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-156200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-102100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-138600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-123500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-148300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-853300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-170200</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,47 +1982,50 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-57400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>59500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>134300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>59400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>63700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>8100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>12000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-18400</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1968,47 +2038,50 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E33" s="3">
         <v>30900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-123900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-179300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-101400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-156200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-102100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-138600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-123500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-148300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-853300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-170200</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,47 +2150,50 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E35" s="3">
         <v>30900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-123900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-179300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-101400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-156200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-102100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-138600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-123500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-148300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-853300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-170200</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,47 +2313,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1264700</v>
+      </c>
+      <c r="E41" s="3">
         <v>2598500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2411300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2358400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2269400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2290700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2335100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2341200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2339400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2011300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1800200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1497600</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2280,32 +2367,35 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1639800</v>
+      </c>
+      <c r="E42" s="3">
         <v>35100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>57300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>99200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>252600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>234200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>148100</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2321,8 +2411,8 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2333,47 +2423,50 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>254000</v>
+      </c>
+      <c r="E43" s="3">
         <v>258300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>343300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>265800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>256600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>190900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>174400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>243000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>151400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>156900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>162300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>106100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,47 +2535,50 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>97600</v>
+      </c>
+      <c r="E45" s="3">
         <v>149600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>134700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>179000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>148800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>147500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>153900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>78400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>98900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>89200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>432000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>76500</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,47 +2591,50 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3256100</v>
+      </c>
+      <c r="E46" s="3">
         <v>3041600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2946600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2902400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2927400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2863300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2811500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2662600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2589700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2257400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2394400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1680200</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2577,15 +2682,15 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3">
         <v>25300</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2598,46 +2703,49 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>273100</v>
+      </c>
+      <c r="E48" s="3">
         <v>269400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>257200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>259100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>266800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>248200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>249600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>234100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>240700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>246600</v>
-      </c>
-      <c r="M48" s="3">
-        <v>29400</v>
       </c>
       <c r="N48" s="3">
         <v>29400</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
+      <c r="O48" s="3">
+        <v>29400</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,47 +2927,50 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>153900</v>
+      </c>
+      <c r="E52" s="3">
         <v>150300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>115000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>120800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>125100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>136000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>163200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>179000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>183800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>186500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>179900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>157500</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,47 +3039,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3683100</v>
+      </c>
+      <c r="E54" s="3">
         <v>3461200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3318800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3282300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3319200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3247500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3224300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3075700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3014200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2690500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2603700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1892400</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,47 +3141,48 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E57" s="3">
         <v>44800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>59500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>56800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>27500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>74900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>17700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>30900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>22200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,47 +3251,50 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>596900</v>
+      </c>
+      <c r="E59" s="3">
         <v>543200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>628800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>608900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>641700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>585200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>663900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>651700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>650400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>587500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>920000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>588000</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3170,47 +3307,50 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>601400</v>
+      </c>
+      <c r="E60" s="3">
         <v>587900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>688400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>665700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>669100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>660100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>681500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>682600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>667600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>603800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>942200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>604100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3250,20 +3393,20 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>198200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>198000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>197800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>297600</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3276,47 +3419,50 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>278500</v>
+      </c>
+      <c r="E62" s="3">
         <v>230900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>243900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>267800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>285300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>296400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>294800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>324100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>342400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>366200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>212000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>261300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,47 +3643,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>959400</v>
+      </c>
+      <c r="E66" s="3">
         <v>895900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>932200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>933500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>954400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>956400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>976300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1006700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1208200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1168000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1352000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1163000</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3704,11 +3872,11 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>2128100</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,47 +3945,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5842600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5859400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5890300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5766400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5587100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5485700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5329500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5227400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5088800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4965400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4817000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3963700</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,47 +4169,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2723700</v>
+      </c>
+      <c r="E76" s="3">
         <v>2565300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2386600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2348800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2364700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2291000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2248100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2069000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1805900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1522600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1251800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1398700</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,105 +4281,111 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E81" s="3">
         <v>30900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-123900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-179300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-101400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-156200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-102100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-138600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-123500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-148300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-853300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-170200</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,47 +4422,48 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E83" s="3">
         <v>7400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7800</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,47 +4756,50 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>187400</v>
+      </c>
+      <c r="E89" s="3">
         <v>78800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>47100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>62400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>35500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>93400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>100800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>22800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>116900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-18300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-52000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-226300</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,47 +4836,48 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-14400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-700</v>
       </c>
       <c r="K91" s="3">
         <v>-700</v>
       </c>
       <c r="L91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M91" s="3">
         <v>-4800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5900</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,47 +5002,50 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1554600</v>
+      </c>
+      <c r="E94" s="3">
         <v>73100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-27300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>5300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-96500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-181900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-214600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-700</v>
       </c>
       <c r="K94" s="3">
         <v>-700</v>
       </c>
       <c r="L94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M94" s="3">
         <v>-4900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5700</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,47 +5304,50 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E100" s="3">
         <v>14200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>24000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>20600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>27200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>32500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>99300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-31400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>206400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>219100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>350100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>467300</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5114,47 +5360,50 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E101" s="3">
         <v>8600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-6100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5167,47 +5416,50 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1338600</v>
+      </c>
+      <c r="E102" s="3">
         <v>174600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>37600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>82700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-34500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-56300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-16600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>320300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>197800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>293300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>235100</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLTR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
   <si>
     <t>PLTR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>533300</v>
+      </c>
+      <c r="E8" s="3">
         <v>525200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>508600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>477900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>473000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>446400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>432900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>392100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>375600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>341200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>322100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>289400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>481200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>229300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>229400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>190500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>176300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>146300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>106900</v>
+      </c>
+      <c r="E9" s="3">
         <v>107600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>104300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>107600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>102200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>94400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>87600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>86800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>90900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>74100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>70500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>149300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>132700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>64300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>75900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>65100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>56600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>426400</v>
+      </c>
+      <c r="E10" s="3">
         <v>417600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>404300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>370300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>370800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>352000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>345300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>305300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>284700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>267100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>251600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>140100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>348500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>165000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>153500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>125400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>119700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>101500</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>99500</v>
+      </c>
+      <c r="E12" s="3">
         <v>90100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>82000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>100900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>88200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>88600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>84200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>94300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>110500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>98500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>94100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>313900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>152600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>65800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>75800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>75900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>78700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>75100</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1086,12 +1106,12 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3">
         <v>700</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,50 +1205,51 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>523200</v>
+      </c>
+      <c r="E17" s="3">
         <v>521100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>526500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>540100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>514800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>485800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>491800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>484100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>521800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>455200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>478700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1137100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>650500</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1235,50 +1262,53 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E18" s="3">
         <v>4100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-17900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-62200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-41800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-39400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-58900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-92000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-146200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-114000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-156600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-847700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-169300</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1291,8 +1321,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,50 +1346,51 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E20" s="3">
         <v>18000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>57400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-59500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-134300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-59400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-63700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-8100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-12000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>18400</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1369,50 +1403,53 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E21" s="3">
         <v>30400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>46900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-115800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-171200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-94500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-118700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-97000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-138900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-115300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-150600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-857300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-143200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1425,8 +1462,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,16 +1474,16 @@
         <v>1300</v>
       </c>
       <c r="E22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F22" s="3">
         <v>1700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>600</v>
       </c>
       <c r="I22" s="3">
         <v>600</v>
@@ -1455,146 +1495,155 @@
         <v>600</v>
       </c>
       <c r="L22" s="3">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="M22" s="3">
         <v>1800</v>
       </c>
       <c r="N22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O22" s="3">
         <v>2100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2700</v>
-      </c>
-      <c r="R22" s="3">
-        <v>200</v>
       </c>
       <c r="S22" s="3">
         <v>200</v>
       </c>
       <c r="T22" s="3">
+        <v>200</v>
+      </c>
+      <c r="U22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E23" s="3">
         <v>20800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>37800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-122800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-176700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-99400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-123200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-144200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-120400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-155900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-861900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-161200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-51700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-155400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-137800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-132700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-141300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>33000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-7600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-8500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,50 +1698,53 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E26" s="3">
         <v>19200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>33500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-123900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-179300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-101400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-156200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-102100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-138600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-123500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-148300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-853300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-164700</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,50 +1757,53 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E27" s="3">
         <v>16800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>30900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-123900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-179300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-101400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-156200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-102100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-138600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-123500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-148300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-853300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-170200</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1761,8 +1816,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,50 +2052,53 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-18000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-57400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>59500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>134300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>59400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>63700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>8100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>12000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-18400</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2041,50 +2111,53 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E33" s="3">
         <v>16800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>30900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-123900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-179300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-101400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-156200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-102100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-138600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-123500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-148300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-853300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-170200</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2170,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,50 +2229,53 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E35" s="3">
         <v>16800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>30900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-123900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-179300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-101400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-156200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-102100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-138600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-123500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-148300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-853300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-170200</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2209,69 +2288,75 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,50 +2400,51 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1055900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1264700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2598500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2411300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2358400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2269400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2290700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2335100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2341200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2339400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2011300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1800200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1497600</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,35 +2457,38 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2047300</v>
+      </c>
+      <c r="E42" s="3">
         <v>1639800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>35100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>57300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>99200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>252600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>234200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>148100</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2504,8 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2426,50 +2516,53 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>375800</v>
+      </c>
+      <c r="E43" s="3">
         <v>254000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>258300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>343300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>265800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>256600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>190900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>174400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>243000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>151400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>156900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>162300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>106100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,50 +2634,53 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>97900</v>
+      </c>
+      <c r="E45" s="3">
         <v>97600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>149600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>134700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>179000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>148800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>147500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>153900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>78400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>98900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>89200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>432000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>76500</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2594,50 +2693,53 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3576900</v>
+      </c>
+      <c r="E46" s="3">
         <v>3256100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3041600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2946600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2902400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2927400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2863300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2811500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2662600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2589700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2257400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2394400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1680200</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2685,15 +2790,15 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3">
         <v>25300</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2706,49 +2811,52 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>253800</v>
+      </c>
+      <c r="E48" s="3">
         <v>273100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>269400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>257200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>259100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>266800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>248200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>249600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>234100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>240700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>246600</v>
-      </c>
-      <c r="N48" s="3">
-        <v>29400</v>
       </c>
       <c r="O48" s="3">
         <v>29400</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
+      <c r="P48" s="3">
+        <v>29400</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
@@ -2762,31 +2870,34 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>30700</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>33100</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,50 +3047,53 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>153900</v>
+        <v>118900</v>
       </c>
       <c r="E52" s="3">
+        <v>120700</v>
+      </c>
+      <c r="F52" s="3">
         <v>150300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>115000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>120800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>125100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>136000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>163200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>179000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>183800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>186500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>179900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>157500</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,50 +3165,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3980300</v>
+      </c>
+      <c r="E54" s="3">
         <v>3683100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3461200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3318800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3282300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3319200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3247500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3224300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3075700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3014200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2690500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2603700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1892400</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,50 +3272,51 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E57" s="3">
         <v>4500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>44800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>59500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>56800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>27500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>74900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>17700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>30900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>22200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,50 +3388,53 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>680800</v>
+      </c>
+      <c r="E59" s="3">
         <v>596900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>543200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>628800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>608900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>641700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>585200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>663900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>651700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>650400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>587500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>920000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>588000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3310,50 +3447,53 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>685400</v>
+      </c>
+      <c r="E60" s="3">
         <v>601400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>587900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>688400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>665700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>669100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>660100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>681500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>682600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>667600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>603800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>942200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>604100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3396,20 +3539,20 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>198200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>198000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>197800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>297600</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3422,50 +3565,53 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>259700</v>
+      </c>
+      <c r="E62" s="3">
         <v>278500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>230900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>243900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>267800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>285300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>296400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>294800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>324100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>342400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>366200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>212000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>261300</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,50 +3801,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1024800</v>
+      </c>
+      <c r="E66" s="3">
         <v>959400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>895900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>932200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>933500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>954400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>956400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>976300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1006700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1208200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1168000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1352000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1163000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3875,11 +4043,11 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>2128100</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,50 +4119,53 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5814500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5842600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5859400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5890300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5766400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5587100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5485700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5329500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5227400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5088800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4965400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4817000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3963700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,50 +4355,53 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2955500</v>
+      </c>
+      <c r="E76" s="3">
         <v>2723700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2565300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2386600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2348800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2364700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2291000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2248100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2069000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1805900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1522600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1251800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1398700</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,111 +4473,117 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E81" s="3">
         <v>16800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>30900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-123900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-179300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-101400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-156200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-102100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-138600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-123500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-148300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-853300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-170200</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4401,8 +4596,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,50 +4621,51 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E83" s="3">
         <v>8300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7800</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,50 +4973,53 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>90200</v>
+      </c>
+      <c r="E89" s="3">
         <v>187400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>78800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>47100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>62400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>35500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>93400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>100800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>22800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>116900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-18300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-52000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-226300</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4815,8 +5032,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,50 +5057,51 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5400</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-700</v>
       </c>
       <c r="L91" s="3">
         <v>-700</v>
       </c>
       <c r="M91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N91" s="3">
         <v>-4800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5900</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,50 +5232,53 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-391100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1554600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>73100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-27300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>5300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-96500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-181900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-214600</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-700</v>
       </c>
       <c r="L94" s="3">
         <v>-700</v>
       </c>
       <c r="M94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N94" s="3">
         <v>-4900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5700</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,50 +5550,53 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>90700</v>
+      </c>
+      <c r="E100" s="3">
         <v>26000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>14200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>24000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>20600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>27200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>32500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>99300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-31400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>206400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>219100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>350100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>467300</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5363,50 +5609,53 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E101" s="3">
         <v>2700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>8600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-6100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5419,50 +5668,53 @@
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-214800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1338600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>174600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>37600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>82700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-34500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-56300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-16600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>320300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>197800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>293300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>235100</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5473,6 +5725,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLTR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
   <si>
     <t>PLTR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>558200</v>
+      </c>
+      <c r="E8" s="3">
         <v>533300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>525200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>508600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>477900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>473000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>446400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>432900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>392100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>375600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>341200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>322100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>289400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>481200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>229300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>229400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>190500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>176300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>146300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>107900</v>
+      </c>
+      <c r="E9" s="3">
         <v>106900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>107600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>104300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>107600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>102200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>94400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>87600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>86800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>90900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>74100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>70500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>149300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>132700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>64300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>75900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>65100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>56600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>450300</v>
+      </c>
+      <c r="E10" s="3">
         <v>426400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>417600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>404300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>370300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>370800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>352000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>345300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>305300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>284700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>267100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>251600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>140100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>348500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>165000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>153500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>125400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>119700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>101500</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>105700</v>
+      </c>
+      <c r="E12" s="3">
         <v>99500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>90100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>82000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>100900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>88200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>88600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>84200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>94300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>110500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>98500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>94100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>313900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>152600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>65800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>75800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>75900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>78700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>75100</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,31 +1085,34 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1109,12 +1129,12 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
         <v>700</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,53 +1232,54 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>518200</v>
+      </c>
+      <c r="E17" s="3">
         <v>523200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>521100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>526500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>540100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>514800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>485800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>491800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>484100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>521800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>455200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>478700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1137100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>650500</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,53 +1292,56 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E18" s="3">
         <v>10100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-17900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-62200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-41800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-39400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-58900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-92000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-146200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-114000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-156600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-847700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-169300</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1324,8 +1354,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,53 +1380,54 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E20" s="3">
         <v>21300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>18000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>57400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-59500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-134300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-59400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-63700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-12000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>18400</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1406,53 +1440,56 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>89400</v>
+      </c>
+      <c r="E21" s="3">
         <v>39800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>30400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>46900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-115800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-171200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-94500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-118700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-97000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-138900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-115300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-150600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-857300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-143200</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1465,28 +1502,31 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="E22" s="3">
         <v>1300</v>
       </c>
       <c r="F22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G22" s="3">
         <v>1700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>600</v>
       </c>
       <c r="J22" s="3">
         <v>600</v>
@@ -1498,152 +1538,161 @@
         <v>600</v>
       </c>
       <c r="M22" s="3">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="N22" s="3">
         <v>1800</v>
       </c>
       <c r="O22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P22" s="3">
         <v>2100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2700</v>
-      </c>
-      <c r="S22" s="3">
-        <v>200</v>
       </c>
       <c r="T22" s="3">
         <v>200</v>
       </c>
       <c r="U22" s="3">
+        <v>200</v>
+      </c>
+      <c r="V22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E23" s="3">
         <v>30000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>20800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>37800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-122800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-176700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-99400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-123200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-144200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-120400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-155900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-861900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-161200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-51700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-155400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-137800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-132700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-141300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E24" s="3">
         <v>2200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>33000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-7600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-8500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,53 +1750,56 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>73400</v>
+      </c>
+      <c r="E26" s="3">
         <v>27900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>19200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>33500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-123900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-179300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-101400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-156200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-102100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-138600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-123500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-148300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-853300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-164700</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1760,53 +1812,56 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E27" s="3">
         <v>28100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>30900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-123900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-179300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-101400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-156200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-102100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-138600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-123500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-148300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-853300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-170200</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1819,8 +1874,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,53 +2122,56 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-21300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-18000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-57400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>59500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>134300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>59400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>63700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>12000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-18400</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2114,53 +2184,56 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E33" s="3">
         <v>28100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>30900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-123900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-179300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-101400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-156200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-102100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-138600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-123500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-148300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-853300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-170200</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2173,8 +2246,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,53 +2308,56 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E35" s="3">
         <v>28100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>30900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-123900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-179300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-101400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-156200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-102100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-138600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-123500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-148300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-853300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-170200</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2291,72 +2370,78 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,53 +2487,54 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1040300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1055900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1264700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2598500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2411300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2358400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2269400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2290700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2335100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2341200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2339400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2011300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1800200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1497600</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2460,38 +2547,41 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2243300</v>
+      </c>
+      <c r="E42" s="3">
         <v>2047300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1639800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>35100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>57300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>99200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>252600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>234200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>148100</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2507,8 +2597,8 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2519,53 +2609,56 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>430300</v>
+      </c>
+      <c r="E43" s="3">
         <v>375800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>254000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>258300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>343300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>265800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>256600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>190900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>174400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>243000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>151400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>156900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>162300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>106100</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,53 +2733,56 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>95600</v>
+      </c>
+      <c r="E45" s="3">
         <v>97900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>97600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>149600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>134700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>179000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>148800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>147500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>153900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>78400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>98900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>89200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>432000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>76500</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2696,53 +2795,56 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3809400</v>
+      </c>
+      <c r="E46" s="3">
         <v>3576900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3256100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3041600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2946600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2902400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2927400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2863300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2811500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2662600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2589700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2257400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2394400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1680200</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2755,8 +2857,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2793,15 +2898,15 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3">
         <v>25300</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2814,52 +2919,55 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>240300</v>
+      </c>
+      <c r="E48" s="3">
         <v>253800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>273100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>269400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>257200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>259100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>266800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>248200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>249600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>234100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>240700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>246600</v>
-      </c>
-      <c r="O48" s="3">
-        <v>29400</v>
       </c>
       <c r="P48" s="3">
         <v>29400</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
+      <c r="Q48" s="3">
+        <v>29400</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
@@ -2873,20 +2981,23 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E49" s="3">
         <v>30700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>33100</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,8 +3010,8 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,53 +3167,56 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>115400</v>
+      </c>
+      <c r="E52" s="3">
         <v>118900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>120700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>150300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>115000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>120800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>125100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>136000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>163200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>179000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>183800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>186500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>179900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>157500</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,53 +3291,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4193400</v>
+      </c>
+      <c r="E54" s="3">
         <v>3980300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3683100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3461200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3318800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3282300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3319200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3247500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3224300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3075700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3014200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2690500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2603700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1892400</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3227,8 +3353,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,53 +3403,54 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E57" s="3">
         <v>4600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>44800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>59500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>56800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>27500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>74900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>30900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>22200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3332,8 +3463,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,53 +3525,56 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>679500</v>
+      </c>
+      <c r="E59" s="3">
         <v>680800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>596900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>543200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>628800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>608900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>641700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>585200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>663900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>651700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>650400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>587500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>920000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>588000</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3450,53 +3587,56 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>688900</v>
+      </c>
+      <c r="E60" s="3">
         <v>685400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>601400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>587900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>688400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>665700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>669100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>660100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>681500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>682600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>667600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>603800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>942200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>604100</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3509,8 +3649,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3542,20 +3685,20 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>198200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>198000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>197800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>297600</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3568,53 +3711,56 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>232600</v>
+      </c>
+      <c r="E62" s="3">
         <v>259700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>278500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>230900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>243900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>267800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>285300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>296400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>294800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>324100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>342400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>366200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>212000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>261300</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,53 +3959,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1003400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1024800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>959400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>895900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>932200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>933500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>954400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>956400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>976300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1006700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1208200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1168000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1352000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1163000</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3863,8 +4021,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4046,11 +4214,11 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>2128100</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,53 +4293,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5743000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5814500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5842600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5859400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5890300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5766400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5587100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5485700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5329500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5227400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5088800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4965400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4817000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3963700</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4181,8 +4355,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,53 +4541,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3190000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2955500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2723700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2565300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2386600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2348800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2364700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2291000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2248100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2069000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1805900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1522600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1251800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1398700</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4417,8 +4603,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,117 +4665,123 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E81" s="3">
         <v>28100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>30900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-123900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-179300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-101400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-156200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-102100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-138600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-123500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-148300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-853300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-170200</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4599,8 +4794,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,53 +4820,54 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E83" s="3">
         <v>8400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7800</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,53 +5190,56 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>133400</v>
+      </c>
+      <c r="E89" s="3">
         <v>90200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>187400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>78800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>47100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>62400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>35500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>93400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>100800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>22800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>116900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-18300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-52000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-226300</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5035,8 +5252,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,53 +5278,54 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5400</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-700</v>
       </c>
       <c r="M91" s="3">
         <v>-700</v>
       </c>
       <c r="N91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O91" s="3">
         <v>-4800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,53 +5462,56 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-196300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-391100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1554600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>73100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-27300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>5300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-96500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-181900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-214600</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-700</v>
       </c>
       <c r="M94" s="3">
         <v>-700</v>
       </c>
       <c r="N94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O94" s="3">
         <v>-4900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,53 +5796,56 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E100" s="3">
         <v>90700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>26000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>14200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>24000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>20600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>27200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>32500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>99300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-31400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>206400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>219100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>350100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>467300</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5612,53 +5858,56 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>8600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-6100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5671,53 +5920,56 @@
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-214800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1338600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>174600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>37600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>82700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-34500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-56300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-16600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>320300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>197800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>293300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>235100</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5728,6 +5980,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
